--- a/word-DBS_data.xlsx
+++ b/word-DBS_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganta\Documents\WordGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F2A2BEAF-581E-45D5-99A7-DE97EFE8B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7063EADD-1395-476D-8703-2BB05EF89D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10908" yWindow="12852" windowWidth="23256" windowHeight="12312" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10090" yWindow="10690" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-7-15" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="11510" uniqueCount="1962">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="11510" uniqueCount="1965">
   <si>
     <t>今日</t>
   </si>
@@ -5915,6 +5915,18 @@
   </si>
   <si>
     <t>バツ</t>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -6537,9 +6549,9 @@
 <table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C1933" totalsRowShown="0">
   <autoFilter ref="A1:C1933" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="単語"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="発話者"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="時刻" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="word"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="speaker"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -62276,7 +62288,7 @@
   <dimension ref="A1:C1933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -62287,13 +62299,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>1962</v>
       </c>
       <c r="B1" t="s">
-        <v>614</v>
+        <v>1963</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>615</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
